--- a/data/pca/factorExposure/factorExposure_2009-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-25.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01671983663167139</v>
+        <v>0.01604916479244932</v>
       </c>
       <c r="C2">
-        <v>0.002345956388031766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001689955813132334</v>
+      </c>
+      <c r="D2">
+        <v>0.01085245651467702</v>
+      </c>
+      <c r="E2">
+        <v>0.0168098465078534</v>
+      </c>
+      <c r="F2">
+        <v>-0.006909915968756772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08112375331947817</v>
+        <v>0.08423163041370371</v>
       </c>
       <c r="C4">
-        <v>0.02020553248001909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01594325307228159</v>
+      </c>
+      <c r="D4">
+        <v>0.08844678679421858</v>
+      </c>
+      <c r="E4">
+        <v>-0.05447848456560777</v>
+      </c>
+      <c r="F4">
+        <v>0.01605634727640917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.001726984434542196</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0001696533776998023</v>
+      </c>
+      <c r="D5">
+        <v>0.001339369899728776</v>
+      </c>
+      <c r="E5">
+        <v>-0.001214902180316844</v>
+      </c>
+      <c r="F5">
+        <v>-0.002998712520373319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1651308456930115</v>
+        <v>0.1687485637318524</v>
       </c>
       <c r="C6">
-        <v>0.04255866922575333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03863288087171499</v>
+      </c>
+      <c r="D6">
+        <v>-0.002727033829426192</v>
+      </c>
+      <c r="E6">
+        <v>-0.06331246186550511</v>
+      </c>
+      <c r="F6">
+        <v>0.01482042894974434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05466277260629739</v>
+        <v>0.05940897170904703</v>
       </c>
       <c r="C7">
-        <v>0.00239273263575791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0006605358924876058</v>
+      </c>
+      <c r="D7">
+        <v>0.05820442537039891</v>
+      </c>
+      <c r="E7">
+        <v>-0.03605720384635366</v>
+      </c>
+      <c r="F7">
+        <v>0.05431046821204241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05776994020150569</v>
+        <v>0.05354866294843996</v>
       </c>
       <c r="C8">
-        <v>-0.008960152223428997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01087438113759868</v>
+      </c>
+      <c r="D8">
+        <v>0.0377380406481621</v>
+      </c>
+      <c r="E8">
+        <v>0.0218352127429731</v>
+      </c>
+      <c r="F8">
+        <v>-0.02164523012330418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06198759917799665</v>
+        <v>0.06541657643133728</v>
       </c>
       <c r="C9">
-        <v>0.01522098719446142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01112077141230793</v>
+      </c>
+      <c r="D9">
+        <v>0.0934979274245288</v>
+      </c>
+      <c r="E9">
+        <v>-0.07339608986420598</v>
+      </c>
+      <c r="F9">
+        <v>0.02253853679050119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1024970781053582</v>
+        <v>0.09635997154260496</v>
       </c>
       <c r="C10">
-        <v>0.02922509947262113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0286757511134923</v>
+      </c>
+      <c r="D10">
+        <v>-0.1478370894472838</v>
+      </c>
+      <c r="E10">
+        <v>0.09691074959074222</v>
+      </c>
+      <c r="F10">
+        <v>-0.00865173514809092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08129028780360009</v>
+        <v>0.07900341072990048</v>
       </c>
       <c r="C11">
-        <v>0.01671487798158226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01171634365897213</v>
+      </c>
+      <c r="D11">
+        <v>0.1352605402527093</v>
+      </c>
+      <c r="E11">
+        <v>-0.03699477447108458</v>
+      </c>
+      <c r="F11">
+        <v>-0.008795644826014309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08525581234387858</v>
+        <v>0.08072174442296454</v>
       </c>
       <c r="C12">
-        <v>0.01413055252310124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008574259834296711</v>
+      </c>
+      <c r="D12">
+        <v>0.1512318825866369</v>
+      </c>
+      <c r="E12">
+        <v>-0.038252351519115</v>
+      </c>
+      <c r="F12">
+        <v>0.00624717155925448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04244156620615806</v>
+        <v>0.04242759200326677</v>
       </c>
       <c r="C13">
-        <v>0.008302465879730972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.004041407567941787</v>
+      </c>
+      <c r="D13">
+        <v>0.06683282207750682</v>
+      </c>
+      <c r="E13">
+        <v>-0.01137284826999597</v>
+      </c>
+      <c r="F13">
+        <v>0.01664745936007537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02018598784561452</v>
+        <v>0.02287476039421079</v>
       </c>
       <c r="C14">
-        <v>0.0152711486437365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01420118477432067</v>
+      </c>
+      <c r="D14">
+        <v>0.04564249344340186</v>
+      </c>
+      <c r="E14">
+        <v>-0.03488911986014043</v>
+      </c>
+      <c r="F14">
+        <v>-0.0008768805680047468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03059457589213271</v>
+        <v>0.03278054821296943</v>
       </c>
       <c r="C15">
-        <v>0.008181478316247213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.006583217487557781</v>
+      </c>
+      <c r="D15">
+        <v>0.05386723258600414</v>
+      </c>
+      <c r="E15">
+        <v>-0.02948587469777914</v>
+      </c>
+      <c r="F15">
+        <v>0.01548790354957776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06020495901986849</v>
+        <v>0.06048151181436301</v>
       </c>
       <c r="C16">
-        <v>0.003868081095362449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0003362256431900787</v>
+      </c>
+      <c r="D16">
+        <v>0.1451033643996362</v>
+      </c>
+      <c r="E16">
+        <v>-0.0443527392520622</v>
+      </c>
+      <c r="F16">
+        <v>-0.01633131039809324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004265220486362501</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.001080908281472739</v>
+      </c>
+      <c r="D17">
+        <v>0.003010240577007515</v>
+      </c>
+      <c r="E17">
+        <v>0.0003055623988247643</v>
+      </c>
+      <c r="F17">
+        <v>-0.007863583817422807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03432467380420904</v>
+        <v>0.05018714708536538</v>
       </c>
       <c r="C18">
-        <v>0.001295975376799552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.001869041859779315</v>
+      </c>
+      <c r="D18">
+        <v>0.03507457630199904</v>
+      </c>
+      <c r="E18">
+        <v>0.01271019199488345</v>
+      </c>
+      <c r="F18">
+        <v>-0.0003628481149089238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05890223053890655</v>
+        <v>0.05892094816259569</v>
       </c>
       <c r="C20">
-        <v>0.005242026279821452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.002033180811070182</v>
+      </c>
+      <c r="D20">
+        <v>0.09836822685437632</v>
+      </c>
+      <c r="E20">
+        <v>-0.06741406989380702</v>
+      </c>
+      <c r="F20">
+        <v>-0.007888065053096511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04241414832612057</v>
+        <v>0.04411713670911892</v>
       </c>
       <c r="C21">
-        <v>0.01146725923115798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008809965135550997</v>
+      </c>
+      <c r="D21">
+        <v>0.05591009314450349</v>
+      </c>
+      <c r="E21">
+        <v>0.009889512432514796</v>
+      </c>
+      <c r="F21">
+        <v>0.004108258042678345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04548491390386449</v>
+        <v>0.04353698903684904</v>
       </c>
       <c r="C22">
-        <v>0.004474429773954156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.002396888884090182</v>
+      </c>
+      <c r="D22">
+        <v>0.02318208262934616</v>
+      </c>
+      <c r="E22">
+        <v>0.03043837572115441</v>
+      </c>
+      <c r="F22">
+        <v>-0.1272334392140735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04549413952163064</v>
+        <v>0.04354486506282134</v>
       </c>
       <c r="C23">
-        <v>0.004477306558975097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.002399410361182637</v>
+      </c>
+      <c r="D23">
+        <v>0.0231763783667135</v>
+      </c>
+      <c r="E23">
+        <v>0.03046209705792349</v>
+      </c>
+      <c r="F23">
+        <v>-0.127273460024635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.06926251325601916</v>
+        <v>0.06841177337024104</v>
       </c>
       <c r="C24">
-        <v>0.005857787480698046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.001412583317368326</v>
+      </c>
+      <c r="D24">
+        <v>0.1369729207874223</v>
+      </c>
+      <c r="E24">
+        <v>-0.04312646244473533</v>
+      </c>
+      <c r="F24">
+        <v>0.002597804168807932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0750793298957729</v>
+        <v>0.07306180801181882</v>
       </c>
       <c r="C25">
-        <v>0.008759347572961205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004370995303177455</v>
+      </c>
+      <c r="D25">
+        <v>0.1251851410972321</v>
+      </c>
+      <c r="E25">
+        <v>-0.02425788990597965</v>
+      </c>
+      <c r="F25">
+        <v>0.02089323727730827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05553209908954143</v>
+        <v>0.06005580806335108</v>
       </c>
       <c r="C26">
-        <v>0.01893662509497838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01615909781843555</v>
+      </c>
+      <c r="D26">
+        <v>0.06803349806526468</v>
+      </c>
+      <c r="E26">
+        <v>-0.005258576961721318</v>
+      </c>
+      <c r="F26">
+        <v>-0.006855581878149736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1635739366373229</v>
+        <v>0.1670946616983332</v>
       </c>
       <c r="C28">
-        <v>0.03760073334112591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.03787036571901962</v>
+      </c>
+      <c r="D28">
+        <v>-0.2359743021783776</v>
+      </c>
+      <c r="E28">
+        <v>0.03083413842659414</v>
+      </c>
+      <c r="F28">
+        <v>0.05204557626001188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02393166988282678</v>
+        <v>0.02680628858842252</v>
       </c>
       <c r="C29">
-        <v>0.009631500395999179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.009244403280994113</v>
+      </c>
+      <c r="D29">
+        <v>0.04244738946123058</v>
+      </c>
+      <c r="E29">
+        <v>0.002445140346955864</v>
+      </c>
+      <c r="F29">
+        <v>-0.02157234589520295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04155462886212043</v>
+        <v>0.04330463951692477</v>
       </c>
       <c r="C30">
-        <v>0.004142992662404853</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0008011727064485314</v>
+      </c>
+      <c r="D30">
+        <v>0.07854722917107967</v>
+      </c>
+      <c r="E30">
+        <v>-0.08869079384007637</v>
+      </c>
+      <c r="F30">
+        <v>0.07703781429549046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05147409056569262</v>
+        <v>0.05153518240758758</v>
       </c>
       <c r="C31">
-        <v>0.02034539774252117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0176866149056167</v>
+      </c>
+      <c r="D31">
+        <v>0.0371439913164963</v>
+      </c>
+      <c r="E31">
+        <v>-0.01179092378319299</v>
+      </c>
+      <c r="F31">
+        <v>-0.03226533308569471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0430964112994312</v>
+        <v>0.0482375354784725</v>
       </c>
       <c r="C32">
-        <v>0.001239575541186356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.00119565982696482</v>
+      </c>
+      <c r="D32">
+        <v>0.04084427709133542</v>
+      </c>
+      <c r="E32">
+        <v>-0.01724876480080139</v>
+      </c>
+      <c r="F32">
+        <v>-0.01949025317549622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08037721058303617</v>
+        <v>0.08343660194874679</v>
       </c>
       <c r="C33">
-        <v>0.0135071107053589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008186805338427682</v>
+      </c>
+      <c r="D33">
+        <v>0.1190268086687724</v>
+      </c>
+      <c r="E33">
+        <v>-0.05242295242953791</v>
+      </c>
+      <c r="F33">
+        <v>-0.008596350243453798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05765002624549968</v>
+        <v>0.0577044524208072</v>
       </c>
       <c r="C34">
-        <v>0.01417673921184446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.009391440808239221</v>
+      </c>
+      <c r="D34">
+        <v>0.1271211542321896</v>
+      </c>
+      <c r="E34">
+        <v>-0.04350701562227899</v>
+      </c>
+      <c r="F34">
+        <v>0.02339370915937371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02694852203722635</v>
+        <v>0.02851700160452367</v>
       </c>
       <c r="C35">
-        <v>0.00581213339433998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004869843254982156</v>
+      </c>
+      <c r="D35">
+        <v>0.01763077490223885</v>
+      </c>
+      <c r="E35">
+        <v>-0.01448263349776663</v>
+      </c>
+      <c r="F35">
+        <v>-0.01888322449378808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0225284529721212</v>
+        <v>0.02723510636475228</v>
       </c>
       <c r="C36">
-        <v>0.008858636123221622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007781929348051882</v>
+      </c>
+      <c r="D36">
+        <v>0.04913526486481516</v>
+      </c>
+      <c r="E36">
+        <v>-0.04218448361467757</v>
+      </c>
+      <c r="F36">
+        <v>-0.009958148889114959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003379627849386159</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.0008618649156704093</v>
+      </c>
+      <c r="D37">
+        <v>0.004885847285671242</v>
+      </c>
+      <c r="E37">
+        <v>0.000971358590408788</v>
+      </c>
+      <c r="F37">
+        <v>-0.0005626002576922576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.08660783491004344</v>
+        <v>0.08050035684561818</v>
       </c>
       <c r="C39">
-        <v>0.01899735926872851</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.0133680554971697</v>
+      </c>
+      <c r="D39">
+        <v>0.1523110191609877</v>
+      </c>
+      <c r="E39">
+        <v>-0.02582266317496179</v>
+      </c>
+      <c r="F39">
+        <v>-0.005270226582343682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04471174426375048</v>
+        <v>0.05044797535533174</v>
       </c>
       <c r="C40">
-        <v>0.01316412160353457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01126692310114224</v>
+      </c>
+      <c r="D40">
+        <v>0.05923805908979419</v>
+      </c>
+      <c r="E40">
+        <v>0.01045413208293174</v>
+      </c>
+      <c r="F40">
+        <v>0.003775543826225124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02708217525067306</v>
+        <v>0.02899658518361167</v>
       </c>
       <c r="C41">
-        <v>0.008954596434312897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008138301695590161</v>
+      </c>
+      <c r="D41">
+        <v>0.0251363302859204</v>
+      </c>
+      <c r="E41">
+        <v>0.004691191163853831</v>
+      </c>
+      <c r="F41">
+        <v>-0.006239583799612681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04205668805671792</v>
+        <v>0.04101291062963753</v>
       </c>
       <c r="C43">
-        <v>0.0103771834895438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.009000735291807114</v>
+      </c>
+      <c r="D43">
+        <v>0.03645387113978679</v>
+      </c>
+      <c r="E43">
+        <v>0.002783123938964915</v>
+      </c>
+      <c r="F43">
+        <v>-0.02525184499931929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05513323093424616</v>
+        <v>0.06334689109227469</v>
       </c>
       <c r="C44">
-        <v>0.02083665168113217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.01835912508104251</v>
+      </c>
+      <c r="D44">
+        <v>0.08922973143346895</v>
+      </c>
+      <c r="E44">
+        <v>-0.2316841673021666</v>
+      </c>
+      <c r="F44">
+        <v>0.08009435539190998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001976557268368729</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-5.643492626885891e-05</v>
+      </c>
+      <c r="D45">
+        <v>5.108326823650131e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0004029697739972324</v>
+      </c>
+      <c r="F45">
+        <v>0.0002243214648532036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02605209381121013</v>
+        <v>0.0266740903529443</v>
       </c>
       <c r="C46">
-        <v>0.006224531230856952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.004782362767137206</v>
+      </c>
+      <c r="D46">
+        <v>0.02893499797285438</v>
+      </c>
+      <c r="E46">
+        <v>-0.002914681022918923</v>
+      </c>
+      <c r="F46">
+        <v>-0.03292325401665228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05136509489657319</v>
+        <v>0.05063918919635068</v>
       </c>
       <c r="C47">
-        <v>0.007758806485745266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.005560208611508048</v>
+      </c>
+      <c r="D47">
+        <v>0.02242418659370437</v>
+      </c>
+      <c r="E47">
+        <v>0.01187719954282282</v>
+      </c>
+      <c r="F47">
+        <v>-0.05435908868058717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04679024744105127</v>
+        <v>0.05071979463546142</v>
       </c>
       <c r="C48">
-        <v>0.006309741828197837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.00391434400563633</v>
+      </c>
+      <c r="D48">
+        <v>0.06415800989579058</v>
+      </c>
+      <c r="E48">
+        <v>-0.009101394743084719</v>
+      </c>
+      <c r="F48">
+        <v>0.02237052693899346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1931770481157954</v>
+        <v>0.196854384475372</v>
       </c>
       <c r="C49">
-        <v>0.03315964312763922</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02758275568579333</v>
+      </c>
+      <c r="D49">
+        <v>-0.005760441073981938</v>
+      </c>
+      <c r="E49">
+        <v>-0.03779467825622804</v>
+      </c>
+      <c r="F49">
+        <v>0.03503836938296039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04944707046600558</v>
+        <v>0.05176326193919542</v>
       </c>
       <c r="C50">
-        <v>0.01567615204602892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01371972973347508</v>
+      </c>
+      <c r="D50">
+        <v>0.03347624865058549</v>
+      </c>
+      <c r="E50">
+        <v>-0.02261698518117221</v>
+      </c>
+      <c r="F50">
+        <v>-0.01861772627082128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1443573692856779</v>
+        <v>0.1387876424783539</v>
       </c>
       <c r="C52">
-        <v>0.02747381176830386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.02254685405646193</v>
+      </c>
+      <c r="D52">
+        <v>0.04449419286491003</v>
+      </c>
+      <c r="E52">
+        <v>-0.06051276544131833</v>
+      </c>
+      <c r="F52">
+        <v>-0.02105017261244447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1747633808882639</v>
+        <v>0.1668421254062092</v>
       </c>
       <c r="C53">
-        <v>0.03359790066516108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.02852804145763883</v>
+      </c>
+      <c r="D53">
+        <v>0.02100754112787225</v>
+      </c>
+      <c r="E53">
+        <v>-0.1154056422402127</v>
+      </c>
+      <c r="F53">
+        <v>-0.01230383798751683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01158801631561552</v>
+        <v>0.01493206113106497</v>
       </c>
       <c r="C54">
-        <v>0.01138941856584671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.0104025801170431</v>
+      </c>
+      <c r="D54">
+        <v>0.03518028597912934</v>
+      </c>
+      <c r="E54">
+        <v>-0.009731451064926218</v>
+      </c>
+      <c r="F54">
+        <v>-0.01442722175856702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1202763903529816</v>
+        <v>0.1173464568770356</v>
       </c>
       <c r="C55">
-        <v>0.0284553339185503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.02460266382049209</v>
+      </c>
+      <c r="D55">
+        <v>0.02272758558165348</v>
+      </c>
+      <c r="E55">
+        <v>-0.07361425202296289</v>
+      </c>
+      <c r="F55">
+        <v>-0.04473591299613734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1803648417215781</v>
+        <v>0.1739982422756652</v>
       </c>
       <c r="C56">
-        <v>0.03146221799497829</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.02692237878288863</v>
+      </c>
+      <c r="D56">
+        <v>0.009980873160573634</v>
+      </c>
+      <c r="E56">
+        <v>-0.07813482748385171</v>
+      </c>
+      <c r="F56">
+        <v>-0.03711735794450553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04656890274289454</v>
+        <v>0.04623049734590461</v>
       </c>
       <c r="C58">
-        <v>0.005143344748574767</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001048233920921332</v>
+      </c>
+      <c r="D58">
+        <v>0.1010723700341689</v>
+      </c>
+      <c r="E58">
+        <v>0.002768680598974902</v>
+      </c>
+      <c r="F58">
+        <v>-0.04083995461733686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1792587240794402</v>
+        <v>0.1833799960747811</v>
       </c>
       <c r="C59">
-        <v>0.03588949539543911</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.03584246766728868</v>
+      </c>
+      <c r="D59">
+        <v>-0.2007099685677038</v>
+      </c>
+      <c r="E59">
+        <v>0.08266813429223957</v>
+      </c>
+      <c r="F59">
+        <v>-0.008340582547969511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2171688429442203</v>
+        <v>0.2130936273431803</v>
       </c>
       <c r="C60">
-        <v>0.01230860353377971</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.006087904992684787</v>
+      </c>
+      <c r="D60">
+        <v>0.02037585689120841</v>
+      </c>
+      <c r="E60">
+        <v>0.01870052281993502</v>
+      </c>
+      <c r="F60">
+        <v>-0.01295052700997586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.06778382185428861</v>
+        <v>0.06430906705710022</v>
       </c>
       <c r="C61">
-        <v>0.01494175825627992</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01012651917130005</v>
+      </c>
+      <c r="D61">
+        <v>0.1200934301552572</v>
+      </c>
+      <c r="E61">
+        <v>-0.0121589638445273</v>
+      </c>
+      <c r="F61">
+        <v>-0.01673549973007823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.167874150963272</v>
+        <v>0.1646416347846771</v>
       </c>
       <c r="C62">
-        <v>0.03312810056473341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.02864497400818667</v>
+      </c>
+      <c r="D62">
+        <v>0.0108484489501706</v>
+      </c>
+      <c r="E62">
+        <v>-0.06886161906489412</v>
+      </c>
+      <c r="F62">
+        <v>-0.04515370961945166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03844470372411263</v>
+        <v>0.04380434423146957</v>
       </c>
       <c r="C63">
-        <v>0.005018862941825631</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002850194788037432</v>
+      </c>
+      <c r="D63">
+        <v>0.07123711117483521</v>
+      </c>
+      <c r="E63">
+        <v>-0.0142192045597628</v>
+      </c>
+      <c r="F63">
+        <v>-0.02093854519366621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1114519274136298</v>
+        <v>0.1099379081569434</v>
       </c>
       <c r="C64">
-        <v>0.02166606513998474</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01709266633090902</v>
+      </c>
+      <c r="D64">
+        <v>0.05441010334233146</v>
+      </c>
+      <c r="E64">
+        <v>-0.03578663854171738</v>
+      </c>
+      <c r="F64">
+        <v>-0.002434423043333906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1539246403445992</v>
+        <v>0.1580173269449439</v>
       </c>
       <c r="C65">
-        <v>0.04843616698229895</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04524780693739547</v>
+      </c>
+      <c r="D65">
+        <v>-0.03780499088527676</v>
+      </c>
+      <c r="E65">
+        <v>-0.06063146797501123</v>
+      </c>
+      <c r="F65">
+        <v>-0.0007047563170544134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1052868087569212</v>
+        <v>0.09825156567757118</v>
       </c>
       <c r="C66">
-        <v>0.0175340018106248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.0111583705205814</v>
+      </c>
+      <c r="D66">
+        <v>0.137142956100303</v>
+      </c>
+      <c r="E66">
+        <v>-0.0283429943396138</v>
+      </c>
+      <c r="F66">
+        <v>-0.001812431629515896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05763990807876537</v>
+        <v>0.04861149517597151</v>
       </c>
       <c r="C67">
-        <v>0.006435892993761364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003465760837319828</v>
+      </c>
+      <c r="D67">
+        <v>0.06423914090093633</v>
+      </c>
+      <c r="E67">
+        <v>0.05136981890710661</v>
+      </c>
+      <c r="F67">
+        <v>-0.06796245938443286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1317006649408276</v>
+        <v>0.1361425397886038</v>
       </c>
       <c r="C68">
-        <v>0.04370094033170914</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04603410620675494</v>
+      </c>
+      <c r="D68">
+        <v>-0.2521967258337625</v>
+      </c>
+      <c r="E68">
+        <v>0.04639693366045359</v>
+      </c>
+      <c r="F68">
+        <v>0.08404855843837634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03897614840097054</v>
+        <v>0.03872504995725562</v>
       </c>
       <c r="C69">
-        <v>0.004121833919121399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.002743938743671194</v>
+      </c>
+      <c r="D69">
+        <v>0.01322647533041047</v>
+      </c>
+      <c r="E69">
+        <v>-0.01688065819597858</v>
+      </c>
+      <c r="F69">
+        <v>-0.05477425331520225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0715876611369456</v>
+        <v>0.07242659349268676</v>
       </c>
       <c r="C70">
-        <v>-0.02090499587978072</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02292761266240929</v>
+      </c>
+      <c r="D70">
+        <v>0.05306758604012805</v>
+      </c>
+      <c r="E70">
+        <v>0.3416376979057077</v>
+      </c>
+      <c r="F70">
+        <v>-0.1838601505842747</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.15316847463655</v>
+        <v>0.1587783187239327</v>
       </c>
       <c r="C71">
-        <v>0.05084009758628333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05231391848827608</v>
+      </c>
+      <c r="D71">
+        <v>-0.256008793121127</v>
+      </c>
+      <c r="E71">
+        <v>0.0520436363971151</v>
+      </c>
+      <c r="F71">
+        <v>0.09168073905984145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.140356288908755</v>
+        <v>0.1462308094636159</v>
       </c>
       <c r="C72">
-        <v>0.03744411035700386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.0347973511397755</v>
+      </c>
+      <c r="D72">
+        <v>0.01674011197654084</v>
+      </c>
+      <c r="E72">
+        <v>-0.06862216208222818</v>
+      </c>
+      <c r="F72">
+        <v>-0.03510072847700312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1929806124149775</v>
+        <v>0.2007008318063353</v>
       </c>
       <c r="C73">
-        <v>0.02633674495556115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01966315316791385</v>
+      </c>
+      <c r="D73">
+        <v>0.0347600750828375</v>
+      </c>
+      <c r="E73">
+        <v>-0.07537744311042874</v>
+      </c>
+      <c r="F73">
+        <v>-0.06188916090116881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08698756017120834</v>
+        <v>0.08722934152166292</v>
       </c>
       <c r="C74">
-        <v>0.0184606165512742</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01576405107558628</v>
+      </c>
+      <c r="D74">
+        <v>0.02098322888941762</v>
+      </c>
+      <c r="E74">
+        <v>-0.08382496486332504</v>
+      </c>
+      <c r="F74">
+        <v>-0.01665773026953206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.123622794992903</v>
+        <v>0.1168336980202099</v>
       </c>
       <c r="C75">
-        <v>0.03664658264984183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03201792085833204</v>
+      </c>
+      <c r="D75">
+        <v>0.03555495751121145</v>
+      </c>
+      <c r="E75">
+        <v>-0.06583063780128606</v>
+      </c>
+      <c r="F75">
+        <v>-0.06001708853780206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07442806960717414</v>
+        <v>0.08830258631126282</v>
       </c>
       <c r="C77">
-        <v>0.01470684356680013</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01177702488136208</v>
+      </c>
+      <c r="D77">
+        <v>0.126469572233536</v>
+      </c>
+      <c r="E77">
+        <v>-0.06120530549089936</v>
+      </c>
+      <c r="F77">
+        <v>0.02321409378886105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.08923526601650356</v>
+        <v>0.09210444027924422</v>
       </c>
       <c r="C78">
-        <v>0.04278889049579342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.0394623227280676</v>
+      </c>
+      <c r="D78">
+        <v>0.1396142483290378</v>
+      </c>
+      <c r="E78">
+        <v>-0.05545988405071117</v>
+      </c>
+      <c r="F78">
+        <v>0.02473028491443031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1668827466714815</v>
+        <v>0.1628453511190731</v>
       </c>
       <c r="C79">
-        <v>0.03657614940987833</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.03148304793023785</v>
+      </c>
+      <c r="D79">
+        <v>0.03038014357834221</v>
+      </c>
+      <c r="E79">
+        <v>-0.04380270297469709</v>
+      </c>
+      <c r="F79">
+        <v>-0.04144363780366664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07653138565172128</v>
+        <v>0.07383169986486038</v>
       </c>
       <c r="C80">
-        <v>0.00465357569697634</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.001861128765665803</v>
+      </c>
+      <c r="D80">
+        <v>0.05650483325835573</v>
+      </c>
+      <c r="E80">
+        <v>0.01893126201160457</v>
+      </c>
+      <c r="F80">
+        <v>-0.04779450383929706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1102076977651453</v>
+        <v>0.1049049456074072</v>
       </c>
       <c r="C81">
-        <v>0.03765415082750401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03473253183473368</v>
+      </c>
+      <c r="D81">
+        <v>0.001062922949674723</v>
+      </c>
+      <c r="E81">
+        <v>-0.04524127902367226</v>
+      </c>
+      <c r="F81">
+        <v>-0.06410920719387801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1591832105811011</v>
+        <v>0.1573448348080925</v>
       </c>
       <c r="C82">
-        <v>0.03625736968426341</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.03162698093978616</v>
+      </c>
+      <c r="D82">
+        <v>-0.005349791234350735</v>
+      </c>
+      <c r="E82">
+        <v>-0.1034010267569436</v>
+      </c>
+      <c r="F82">
+        <v>-0.005702024292393029</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0532758239093252</v>
+        <v>0.04927341201808557</v>
       </c>
       <c r="C83">
-        <v>0.006585991175628285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.00401964469000203</v>
+      </c>
+      <c r="D83">
+        <v>0.05003231326519633</v>
+      </c>
+      <c r="E83">
+        <v>0.01837104105007099</v>
+      </c>
+      <c r="F83">
+        <v>-0.003681102116238221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05187728228402254</v>
+        <v>0.04926890798093497</v>
       </c>
       <c r="C84">
-        <v>0.01419245679928694</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01115711702191816</v>
+      </c>
+      <c r="D84">
+        <v>0.07716041002667183</v>
+      </c>
+      <c r="E84">
+        <v>-0.007780277191830408</v>
+      </c>
+      <c r="F84">
+        <v>-0.005185800107416147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1390531537186408</v>
+        <v>0.1340411211319439</v>
       </c>
       <c r="C85">
-        <v>0.03979814013594121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.035380147357564</v>
+      </c>
+      <c r="D85">
+        <v>0.02381438973825119</v>
+      </c>
+      <c r="E85">
+        <v>-0.09094126714187105</v>
+      </c>
+      <c r="F85">
+        <v>-0.02125233556864824</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08718275983060554</v>
+        <v>0.08332101369485741</v>
       </c>
       <c r="C86">
-        <v>-0.0003532863849383526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.005422661549316908</v>
+      </c>
+      <c r="D86">
+        <v>0.1010368553438346</v>
+      </c>
+      <c r="E86">
+        <v>0.5515624039538835</v>
+      </c>
+      <c r="F86">
+        <v>-0.5774013777961141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08669468148117311</v>
+        <v>0.08756417514211062</v>
       </c>
       <c r="C87">
-        <v>0.02939943968185138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02458760940577005</v>
+      </c>
+      <c r="D87">
+        <v>0.08531597744781147</v>
+      </c>
+      <c r="E87">
+        <v>-0.01077309967306138</v>
+      </c>
+      <c r="F87">
+        <v>0.114652775966625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06252034217429679</v>
+        <v>0.06142728723745575</v>
       </c>
       <c r="C88">
-        <v>0.0081639177714329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.005303130902110821</v>
+      </c>
+      <c r="D88">
+        <v>0.067354910988317</v>
+      </c>
+      <c r="E88">
+        <v>-0.02053758973381445</v>
+      </c>
+      <c r="F88">
+        <v>-0.01539087989746463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1401220130728209</v>
+        <v>0.1440343998763121</v>
       </c>
       <c r="C89">
-        <v>0.02377483525840933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.02635902382625962</v>
+      </c>
+      <c r="D89">
+        <v>-0.2245956043215961</v>
+      </c>
+      <c r="E89">
+        <v>0.04380017967190023</v>
+      </c>
+      <c r="F89">
+        <v>0.08839531117323059</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1671552281769516</v>
+        <v>0.1755493312536513</v>
       </c>
       <c r="C90">
-        <v>0.04805655696035827</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05018999095064152</v>
+      </c>
+      <c r="D90">
+        <v>-0.2462337989006878</v>
+      </c>
+      <c r="E90">
+        <v>0.07500850942643797</v>
+      </c>
+      <c r="F90">
+        <v>0.120086796728385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1254933397193</v>
+        <v>0.1200041837843</v>
       </c>
       <c r="C91">
-        <v>0.0301575878575691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.02705294234633518</v>
+      </c>
+      <c r="D91">
+        <v>-0.01002260600181177</v>
+      </c>
+      <c r="E91">
+        <v>-0.0377378477658039</v>
+      </c>
+      <c r="F91">
+        <v>-0.09760064097508568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.162451599284234</v>
+        <v>0.1659412824418438</v>
       </c>
       <c r="C92">
-        <v>0.03843242085300379</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.04010418315789444</v>
+      </c>
+      <c r="D92">
+        <v>-0.2840638861200326</v>
+      </c>
+      <c r="E92">
+        <v>0.06161019977144976</v>
+      </c>
+      <c r="F92">
+        <v>0.07973054349143932</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1684413141142339</v>
+        <v>0.1770006821908381</v>
       </c>
       <c r="C93">
-        <v>0.04340197848707757</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.0445515799432129</v>
+      </c>
+      <c r="D93">
+        <v>-0.2377395681739295</v>
+      </c>
+      <c r="E93">
+        <v>0.03269775904235846</v>
+      </c>
+      <c r="F93">
+        <v>0.05968861288492953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1198680739530898</v>
+        <v>0.1145342008408211</v>
       </c>
       <c r="C94">
-        <v>0.0314523257427696</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02677108044583626</v>
+      </c>
+      <c r="D94">
+        <v>0.04666682893645296</v>
+      </c>
+      <c r="E94">
+        <v>-0.06262757726469492</v>
+      </c>
+      <c r="F94">
+        <v>-0.05772510795114297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1218340132496485</v>
+        <v>0.1247301474220687</v>
       </c>
       <c r="C95">
-        <v>0.01401598047837411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.007900759836428095</v>
+      </c>
+      <c r="D95">
+        <v>0.1245658648271151</v>
+      </c>
+      <c r="E95">
+        <v>-0.01333644311288644</v>
+      </c>
+      <c r="F95">
+        <v>-0.036908793817331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1894987347771453</v>
+        <v>0.1646434367816398</v>
       </c>
       <c r="C96">
-        <v>-0.9759111814646969</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9794755961625966</v>
+      </c>
+      <c r="D96">
+        <v>-0.06055547873916891</v>
+      </c>
+      <c r="E96">
+        <v>-0.0614905405076601</v>
+      </c>
+      <c r="F96">
+        <v>-0.009235939293308003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1911863354682986</v>
+        <v>0.1957340491572828</v>
       </c>
       <c r="C97">
-        <v>0.009346655010823008</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.004198585036450099</v>
+      </c>
+      <c r="D97">
+        <v>-0.02035861558114769</v>
+      </c>
+      <c r="E97">
+        <v>0.1473046061413766</v>
+      </c>
+      <c r="F97">
+        <v>-0.0899504761492856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1942636634950252</v>
+        <v>0.2015341642000645</v>
       </c>
       <c r="C98">
-        <v>0.02306680578244055</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01668417509507247</v>
+      </c>
+      <c r="D98">
+        <v>0.01449309126209473</v>
+      </c>
+      <c r="E98">
+        <v>0.1167630101408954</v>
+      </c>
+      <c r="F98">
+        <v>0.03625107164921985</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05536779151189534</v>
+        <v>0.05532709607096291</v>
       </c>
       <c r="C99">
-        <v>-0.0002939693368515948</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.002647896897038404</v>
+      </c>
+      <c r="D99">
+        <v>0.06059090066981362</v>
+      </c>
+      <c r="E99">
+        <v>-0.005280681533867355</v>
+      </c>
+      <c r="F99">
+        <v>-0.006103526274795246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1176547897272827</v>
+        <v>0.1100074602303007</v>
       </c>
       <c r="C100">
-        <v>-0.0336548237922592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.04084332096742609</v>
+      </c>
+      <c r="D100">
+        <v>0.3222175816400998</v>
+      </c>
+      <c r="E100">
+        <v>0.5497541522273839</v>
+      </c>
+      <c r="F100">
+        <v>0.670085189443644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02386797143633555</v>
+        <v>0.02674859789065601</v>
       </c>
       <c r="C101">
-        <v>0.009648572452518605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.009292618484453058</v>
+      </c>
+      <c r="D101">
+        <v>0.04199981447056126</v>
+      </c>
+      <c r="E101">
+        <v>0.004837265085575431</v>
+      </c>
+      <c r="F101">
+        <v>-0.0228982826527182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
